--- a/intervention/french_language_auto.xlsx
+++ b/intervention/french_language_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,21 +452,21 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Z931100609006</t>
+          <t>M931235210024</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M931235210024</t>
+          <t>Z931100609006</t>
         </is>
       </c>
     </row>
@@ -492,51 +492,321 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F931235210018</t>
+          <t>W931100608061</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>W931100608061</t>
+          <t>F931235210018</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M931100609016</t>
+          <t>A931252110030</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Q931235212001</t>
+          <t>M931100609016</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A931252110030</t>
+          <t>Q931235212001</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>N931325209054</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Z931383214002</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F931100509027</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>R931253116053</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>K931100609063</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>V931414517045</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>V931101109041</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>U931101109019</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>C931252508049</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>V802229210007</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>N931100609007</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>E931252916073</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>M931252710007</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>J931384210007</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>V931101109012</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>K931101109004</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>C931100609037</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Y931252211003</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>N931383610018</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>G931383410017</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>T931252911047</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>M931252909052</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F931100609041</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>X931252710015</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>W931321110033</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>C931321610014</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>J931101109071</t>
         </is>
       </c>
     </row>
